--- a/branches/Richard/StructureDefinition-hiv-recency-test.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:13:37+00:00</t>
+    <t>2023-02-22T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-recency-test.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:14:29+00:00</t>
+    <t>2023-02-22T12:55:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/StructureDefinition-hiv-recency-test.xlsx
+++ b/branches/Richard/StructureDefinition-hiv-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T12:55:56+00:00</t>
+    <t>2023-02-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
